--- a/excel/kpi-pm.xlsx
+++ b/excel/kpi-pm.xlsx
@@ -77,9 +77,8 @@
 1、该项由于关联牵扯多方配合（研发、ui设计、产品），只统计测试单阶段的进度达成率，其他环节有其他指标来判断。（以测试报告生成时间为测试项目关闭时间）
 计算标准
 延时率 = (本月结案项目总实际开发天数)/(本月结案项目总预估天数) - 1
-延时率 &lt;= -50%                       基数 0.8
--50% &lt; 延时率 &lt;= -20%.         基数 1
--20% &lt; 延时率 &lt;= 0%.            基数 1.2
+延时率
+延时率 &lt;= 0%.            基数 1
 0% &lt; 延时率 &lt;= 20%.             基数 0.8
 20% &lt; 延时率 &lt;= 50%.             基数 0.5
 延时率 &gt; 50%                          基数 0</t>
@@ -95,11 +94,10 @@
 1、该项统计项目内需求的完成率（研发完毕），已纳入项目规划的需求，在结项时的遗留。
 2、统计考察周期内已关闭的项目。
 计算标准
-1、项目成果完整率95%或更高：1.2
-2、项目成果完整率大于等于85%，小于95%：1
-3、项目成果完整率大于等于75%，小于85%：0.8
-4、项目成果完整率大于等于65%，小于75%：0.5
-5、项目成果完整率小于65%：0</t>
+1、项目成果完整率大于等于90%：1
+2、项目成果完整率大于等于80%，小于90%：0.8
+3、项目成果完整率大于等于70%，小于80%：0.5
+4、项目成果完整率小于70%：0</t>
   </si>
   <si>
     <t>基数=(项目基数之和）/项目数
@@ -174,16 +172,16 @@
     <t>绩效基数</t>
   </si>
   <si>
-    <t>100≤X</t>
+    <t>90≤X</t>
   </si>
   <si>
     <t>最终得分系数</t>
   </si>
   <si>
-    <t>80≤X＜100</t>
-  </si>
-  <si>
-    <t>60≤X＜80</t>
+    <t>70≤X＜90</t>
+  </si>
+  <si>
+    <t>60≤X＜70</t>
   </si>
   <si>
     <t>X&lt;60</t>

--- a/excel/kpi-pm.xlsx
+++ b/excel/kpi-pm.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>云平台组 项目经理岗XXXX年XX月绩效考核表</t>
   </si>
@@ -181,7 +181,13 @@
     <t>70≤X＜90</t>
   </si>
   <si>
+    <t>本月应发绩效奖金</t>
+  </si>
+  <si>
     <t>60≤X＜70</t>
+  </si>
+  <si>
+    <t>出勤率百分比</t>
   </si>
   <si>
     <t>X&lt;60</t>
@@ -456,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,16 +472,16 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -484,19 +490,19 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -505,19 +511,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -526,13 +532,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -544,10 +550,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -556,22 +562,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -586,7 +589,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -806,12 +809,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1095,12 +1098,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1933,87 +1936,91 @@
       <c r="E14" s="32">
         <v>1</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
+      <c r="F14" t="s" s="27">
+        <v>40</v>
+      </c>
+      <c r="G14" s="33"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" t="s" s="31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="32">
         <v>0.7</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
+      <c r="F15" t="s" s="34">
+        <v>42</v>
+      </c>
+      <c r="G15" s="35"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" t="s" s="31">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="32">
         <v>0</v>
       </c>
-      <c r="F16" t="s" s="39">
-        <v>42</v>
-      </c>
-      <c r="G16" s="40"/>
+      <c r="F16" t="s" s="38">
+        <v>44</v>
+      </c>
+      <c r="G16" s="39"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" t="s" s="24">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" t="s" s="31">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="41"/>
-      <c r="F17" t="s" s="42">
-        <v>45</v>
-      </c>
-      <c r="G17" s="34"/>
+      <c r="E17" s="40"/>
+      <c r="F17" t="s" s="41">
+        <v>47</v>
+      </c>
+      <c r="G17" s="33"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" t="s" s="31">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="43"/>
-      <c r="F18" t="s" s="42">
-        <v>45</v>
-      </c>
-      <c r="G18" s="34"/>
+      <c r="E18" s="42"/>
+      <c r="F18" t="s" s="41">
+        <v>47</v>
+      </c>
+      <c r="G18" s="33"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
       <c r="C19" t="s" s="31">
+        <v>49</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="40"/>
+      <c r="F19" t="s" s="41">
         <v>47</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="41"/>
-      <c r="F19" t="s" s="42">
-        <v>45</v>
-      </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" ht="69" customHeight="1">
       <c r="A20" t="s" s="21">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
